--- a/hydrogen_comps/meltcorrMAE.xlsx
+++ b/hydrogen_comps/meltcorrMAE.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2079110294616192</v>
+        <v>0.1454560131662833</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3712575647981378</v>
+        <v>0.2960932320440638</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4739870816319642</v>
+        <v>0.4139825968325628</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6911160625798235</v>
+        <v>0.6030192320592257</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8419971955301087</v>
+        <v>0.8080822157080472</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.189599944332847</v>
+        <v>1.184890562614349</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2704450057678942</v>
+        <v>0.222903107808925</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6924317489271173</v>
+        <v>0.5030254831398444</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8189562372005929</v>
+        <v>0.6948495953525461</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.162427267853413</v>
+        <v>1.085632739753365</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.617631853316818</v>
+        <v>1.452731959033275</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.657204305082139</v>
+        <v>2.49027611399768</v>
       </c>
     </row>
   </sheetData>

--- a/hydrogen_comps/meltcorrMAE.xlsx
+++ b/hydrogen_comps/meltcorrMAE.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1454560131662833</v>
+        <v>0.07272800658314164</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2960932320440638</v>
+        <v>0.07402330801101595</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4139825968325628</v>
+        <v>0.0689970994720938</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6030192320592257</v>
+        <v>0.07537740400740321</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8080822157080472</v>
+        <v>0.08080822157080472</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.184890562614349</v>
+        <v>0.09874088021786243</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.222903107808925</v>
+        <v>0.1114515539044625</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5030254831398444</v>
+        <v>0.1257563707849611</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6948495953525461</v>
+        <v>0.115808265892091</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.085632739753365</v>
+        <v>0.1357040924691707</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.452731959033275</v>
+        <v>0.1452731959033275</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.49027611399768</v>
+        <v>0.2075230094998067</v>
       </c>
     </row>
   </sheetData>
